--- a/K-LIN/報告用/sensor/infraded sensor.xlsx
+++ b/K-LIN/報告用/sensor/infraded sensor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbtan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\GitHub\K-LIN\K-LIN\報告用\sensor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,47 +99,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.41388888888888892"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.12924759405074365"/>
+          <c:y val="0.13291131280085472"/>
+          <c:w val="0.75453274816710914"/>
+          <c:h val="0.74908209390492841"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -147,48 +119,58 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd" cmpd="sng">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="38100" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21497069116360454"/>
-                  <c:y val="-0.54153579760863224"/>
+                  <c:x val="6.1908136482939635E-2"/>
+                  <c:y val="-0.21938283756197141"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -199,9 +181,8 @@
                     <a:pPr>
                       <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
+                          <a:schemeClr val="lt1">
+                            <a:lumMod val="75000"/>
                           </a:schemeClr>
                         </a:solidFill>
                         <a:latin typeface="+mn-lt"/>
@@ -210,34 +191,26 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="2000" baseline="0"/>
-                      <a:t>y = 8E-09x</a:t>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="2000" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 50.598x</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="2000" baseline="30000"/>
-                      <a:t>4</a:t>
+                      <a:rPr lang="en-US" altLang="zh-TW" sz="2000" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>-1.016</a:t>
                     </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="2000" baseline="0"/>
-                      <a:t> - 1E-05x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="2000" baseline="30000"/>
-                      <a:t>3</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="2000" baseline="0"/>
-                      <a:t> + 0.0069x</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="2000" baseline="30000"/>
-                      <a:t>2</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" altLang="zh-TW" sz="2000" baseline="0"/>
-                      <a:t> - 1.8855x + 238.53</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" altLang="zh-TW" sz="2000"/>
+                    <a:endParaRPr lang="en-US" altLang="zh-TW" sz="2000">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -256,9 +229,8 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="75000"/>
                         </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
@@ -273,917 +245,860 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>工作表1!$B:$B</c:f>
+              <c:f>工作表1!$C$11:$C$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>166</c:v>
+                  <c:v>2.8201368523949171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>345</c:v>
+                  <c:v>2.7908113391984362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>354</c:v>
+                  <c:v>2.7517106549364616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>378</c:v>
+                  <c:v>2.7174975562072334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>393</c:v>
+                  <c:v>2.6686217008797652</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>404</c:v>
+                  <c:v>2.6148582600195502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>420</c:v>
+                  <c:v>2.5708699902248289</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>488</c:v>
+                  <c:v>2.512218963831867</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>549</c:v>
+                  <c:v>2.4633431085043989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>574</c:v>
+                  <c:v>2.4095796676441839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>577</c:v>
+                  <c:v>2.3558162267839688</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>571</c:v>
+                  <c:v>2.3020527859237538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>563</c:v>
+                  <c:v>2.2434017595307916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>556</c:v>
+                  <c:v>2.1896383186705766</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>546</c:v>
+                  <c:v>2.1358748778103616</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>535</c:v>
+                  <c:v>2.0625610948191593</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>526</c:v>
+                  <c:v>2.0087976539589443</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>514</c:v>
+                  <c:v>1.9696969696969697</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>504</c:v>
+                  <c:v>1.9110459433040079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>493</c:v>
+                  <c:v>1.8572825024437927</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>482</c:v>
+                  <c:v>1.8035190615835777</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>471</c:v>
+                  <c:v>1.7448680351906158</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>459</c:v>
+                  <c:v>1.7155425219941349</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>448</c:v>
+                  <c:v>1.6520039100684263</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>437</c:v>
+                  <c:v>1.6177908113391983</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>422</c:v>
+                  <c:v>1.5640273704789833</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>411</c:v>
+                  <c:v>1.5249266862170088</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>403</c:v>
+                  <c:v>1.4809384164222874</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>391</c:v>
+                  <c:v>1.4467253176930597</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>380</c:v>
+                  <c:v>1.4173998044965788</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>369</c:v>
+                  <c:v>1.3880742913000979</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>357</c:v>
+                  <c:v>1.3489736070381231</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>351</c:v>
+                  <c:v>1.3147605083088953</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>338</c:v>
+                  <c:v>1.2903225806451613</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>331</c:v>
+                  <c:v>1.2561094819159335</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>320</c:v>
+                  <c:v>1.2365591397849462</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>312</c:v>
+                  <c:v>1.2023460410557185</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>303</c:v>
+                  <c:v>1.1730205278592376</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>296</c:v>
+                  <c:v>1.1583577712609971</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>290</c:v>
+                  <c:v>1.1388074291300099</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>284</c:v>
+                  <c:v>1.1143695014662756</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>276</c:v>
+                  <c:v>1.075268817204301</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>269</c:v>
+                  <c:v>1.0606060606060606</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>264</c:v>
+                  <c:v>1.0361681329423265</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>257</c:v>
+                  <c:v>1.0166177908113392</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>253</c:v>
+                  <c:v>1.0019550342130987</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>246</c:v>
+                  <c:v>0.99217986314760509</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>240</c:v>
+                  <c:v>0.967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>237</c:v>
+                  <c:v>0.95796676441837736</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>233</c:v>
+                  <c:v>0.93841642228739008</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>228</c:v>
+                  <c:v>0.92864125122189634</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>220</c:v>
+                  <c:v>0.90420332355816224</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>217</c:v>
+                  <c:v>0.88465298142717497</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>212</c:v>
+                  <c:v>0.86999022482893451</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>208</c:v>
+                  <c:v>0.86021505376344087</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>205</c:v>
+                  <c:v>0.84555229716520042</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>203</c:v>
+                  <c:v>0.82111436950146632</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>198</c:v>
+                  <c:v>0.82111436950146632</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>196</c:v>
+                  <c:v>0.80645161290322576</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>192</c:v>
+                  <c:v>0.79667644183773212</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>190</c:v>
+                  <c:v>0.78201368523949166</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>185</c:v>
+                  <c:v>0.77712609970674484</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>181</c:v>
+                  <c:v>0.77712609970674484</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>178</c:v>
+                  <c:v>0.76246334310850439</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>176</c:v>
+                  <c:v>0.74291300097751711</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>173</c:v>
+                  <c:v>0.73802541544477029</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>168</c:v>
+                  <c:v>0.72336265884652984</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>168</c:v>
+                  <c:v>0.71847507331378302</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>165</c:v>
+                  <c:v>0.69892473118279574</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>163</c:v>
+                  <c:v>0.69892473118279574</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>160</c:v>
+                  <c:v>0.68426197458455518</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>159</c:v>
+                  <c:v>0.68426197458455518</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>159</c:v>
+                  <c:v>0.67448680351906154</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>156</c:v>
+                  <c:v>0.66959921798631472</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>152</c:v>
+                  <c:v>0.65982404692082108</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>151</c:v>
+                  <c:v>0.64516129032258063</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>148</c:v>
+                  <c:v>0.64027370478983381</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>147</c:v>
+                  <c:v>0.63049853372434017</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>143</c:v>
+                  <c:v>0.62072336265884653</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>143</c:v>
+                  <c:v>0.61583577712609971</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>140</c:v>
+                  <c:v>0.60117302052785926</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>140</c:v>
+                  <c:v>0.60117302052785926</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>138</c:v>
+                  <c:v>0.58162267839687198</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>137</c:v>
+                  <c:v>0.57673509286412517</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>135</c:v>
+                  <c:v>0.57673509286412517</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>132</c:v>
+                  <c:v>0.56695992179863153</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>131</c:v>
+                  <c:v>0.55229716520039096</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>129</c:v>
+                  <c:v>0.54740957966764414</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>127</c:v>
+                  <c:v>0.52785923753665687</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>126</c:v>
+                  <c:v>0.53274682306940369</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>123</c:v>
+                  <c:v>0.52297165200391005</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>123</c:v>
+                  <c:v>0.51319648093841641</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>119</c:v>
+                  <c:v>0.50830889540566959</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>118</c:v>
+                  <c:v>0.50830889540566959</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>118</c:v>
+                  <c:v>0.49364613880742914</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>116</c:v>
+                  <c:v>0.49364613880742914</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>113</c:v>
+                  <c:v>0.48875855327468232</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>112</c:v>
+                  <c:v>0.47409579667644186</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>108</c:v>
+                  <c:v>0.46920821114369504</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>109</c:v>
+                  <c:v>0.46920821114369504</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>107</c:v>
+                  <c:v>0.46432062561094817</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>105</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>104</c:v>
+                  <c:v>0.44965786901270771</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>104</c:v>
+                  <c:v>0.44965786901270771</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>101</c:v>
+                  <c:v>0.43988269794721407</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>101</c:v>
+                  <c:v>0.43010752688172044</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>100</c:v>
+                  <c:v>0.43010752688172044</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>97</c:v>
+                  <c:v>0.43010752688172044</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>96</c:v>
+                  <c:v>0.42521994134897362</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>96</c:v>
+                  <c:v>0.41055718475073316</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>95</c:v>
+                  <c:v>0.41055718475073316</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>93</c:v>
+                  <c:v>0.40566959921798629</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>92</c:v>
+                  <c:v>0.40566959921798629</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>92</c:v>
+                  <c:v>0.39100684261974583</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>90</c:v>
+                  <c:v>0.38611925708699901</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>88</c:v>
+                  <c:v>0.38611925708699901</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>88</c:v>
+                  <c:v>0.38611925708699901</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>88</c:v>
+                  <c:v>0.38123167155425219</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>87</c:v>
+                  <c:v>0.37634408602150538</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>84</c:v>
+                  <c:v>0.37145650048875856</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>84</c:v>
+                  <c:v>0.37145650048875856</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>83</c:v>
+                  <c:v>0.36656891495601174</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>83</c:v>
+                  <c:v>0.3567937438905181</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>80</c:v>
+                  <c:v>0.35190615835777128</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>79</c:v>
+                  <c:v>0.35190615835777128</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>79</c:v>
+                  <c:v>0.35190615835777128</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>79</c:v>
+                  <c:v>0.35190615835777128</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>78</c:v>
+                  <c:v>0.33724340175953077</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>77</c:v>
+                  <c:v>0.33235581622678395</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>76</c:v>
+                  <c:v>0.33235581622678395</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>76</c:v>
+                  <c:v>0.33235581622678395</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>75</c:v>
+                  <c:v>0.33235581622678395</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>73</c:v>
+                  <c:v>0.32258064516129031</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>72</c:v>
+                  <c:v>0.31769305962854349</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>72</c:v>
+                  <c:v>0.31280547409579668</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>72</c:v>
+                  <c:v>0.31280547409579668</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>72</c:v>
+                  <c:v>0.31280547409579668</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>69</c:v>
+                  <c:v>0.30791788856304986</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>68</c:v>
+                  <c:v>0.29814271749755622</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>60</c:v>
+                  <c:v>0.2932551319648094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>工作表1!$A:$A</c:f>
+              <c:f>工作表1!$A$10:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="141"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>35</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>39</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>41</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>47</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>48</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>50</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>52</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>54</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>55</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>56</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>59</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>60</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>61</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>65</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>66</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>67</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>68</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>69</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>70</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>71</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>73</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>74</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>75</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>76</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>77</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>78</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>79</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>80</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>81</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>83</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>85</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>87</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>88</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>89</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>90</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>91</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>92</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>93</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>94</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>95</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>96</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>97</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>98</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>99</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>100</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>101</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>102</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>103</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>104</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>106</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>107</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>108</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>110</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>111</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>112</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>113</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>114</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>115</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>116</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>117</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>118</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>119</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>120</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>121</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>122</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>123</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>124</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>125</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>126</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>127</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>128</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>129</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>130</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>131</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>132</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>133</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>134</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>135</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>136</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>137</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>138</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>139</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>140</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="149">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -1192,7 +1107,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFF3-48D4-B6ED-65A9FBA8F528}"/>
+              <c16:uniqueId val="{00000000-F369-4866-BD2F-57E764FAB967}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1204,11 +1119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="718830047"/>
-        <c:axId val="718835039"/>
+        <c:axId val="2048182880"/>
+        <c:axId val="2048185792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="718830047"/>
+        <c:axId val="2048182880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,9 +1133,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1228,6 +1144,174 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2048185792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2048185792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>cm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1236,9 +1320,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1252,9 +1335,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1265,12 +1347,1213 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718835039"/>
+        <c:crossAx val="2048182880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12581642348469882"/>
+          <c:y val="3.5641955761112662E-2"/>
+          <c:w val="0.83155514162880162"/>
+          <c:h val="0.8424842417652284"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="119"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="25000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-066A-459D-9E20-ED4E87569F69}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$C:$C</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.81133919843597258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.686217008797654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7302052785923754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.847507331378299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9208211143695015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9745845552297165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0527859237536656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3851417399804498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6832844574780057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8054740957966766</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8201368523949171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7908113391984362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7517106549364616</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7174975562072334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6686217008797652</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6148582600195502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5708699902248289</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.512218963831867</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4633431085043989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4095796676441839</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3558162267839688</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3020527859237538</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2434017595307916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1896383186705766</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1358748778103616</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0625610948191593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0087976539589443</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9696969696969697</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9110459433040079</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8572825024437927</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8035190615835777</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7448680351906158</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7155425219941349</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6520039100684263</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6177908113391983</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5640273704789833</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5249266862170088</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4809384164222874</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4467253176930597</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4173998044965788</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3880742913000979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3489736070381231</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3147605083088953</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2903225806451613</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.2561094819159335</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2365591397849462</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2023460410557185</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1730205278592376</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1583577712609971</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1388074291300099</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1143695014662756</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.075268817204301</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0606060606060606</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0361681329423265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0166177908113392</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0019550342130987</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99217986314760509</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.967741935483871</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.95796676441837736</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.93841642228739008</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.92864125122189634</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.90420332355816224</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.88465298142717497</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.86999022482893451</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.86021505376344087</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.84555229716520042</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.82111436950146632</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.82111436950146632</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.80645161290322576</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.79667644183773212</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.78201368523949166</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.77712609970674484</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77712609970674484</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.76246334310850439</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74291300097751711</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.73802541544477029</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.72336265884652984</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.71847507331378302</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.69892473118279574</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.69892473118279574</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.68426197458455518</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.68426197458455518</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.67448680351906154</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66959921798631472</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.65982404692082108</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.64516129032258063</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.64027370478983381</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.63049853372434017</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.62072336265884653</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.61583577712609971</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.60117302052785926</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.60117302052785926</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.58162267839687198</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.57673509286412517</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.57673509286412517</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.56695992179863153</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.55229716520039096</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.54740957966764414</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.52785923753665687</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.53274682306940369</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.52297165200391005</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.51319648093841641</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.50830889540566959</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.50830889540566959</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.49364613880742914</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.49364613880742914</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.48875855327468232</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.47409579667644186</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.46920821114369504</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.46920821114369504</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.46432062561094817</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.44965786901270771</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.44965786901270771</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.43988269794721407</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.43010752688172044</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.43010752688172044</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.43010752688172044</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.42521994134897362</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.41055718475073316</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.41055718475073316</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.40566959921798629</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.40566959921798629</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.39100684261974583</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.38611925708699901</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.38611925708699901</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.38611925708699901</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.38123167155425219</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.37634408602150538</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.37145650048875856</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.37145650048875856</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.36656891495601174</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.3567937438905181</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.35190615835777128</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.35190615835777128</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.35190615835777128</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.35190615835777128</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.33724340175953077</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.33235581622678395</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.33235581622678395</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.33235581622678395</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.33235581622678395</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.32258064516129031</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.31769305962854349</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.31280547409579668</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.31280547409579668</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.31280547409579668</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.30791788856304986</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.29814271749755622</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.2932551319648094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-066A-459D-9E20-ED4E87569F69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="977645135"/>
+        <c:axId val="977648463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="977645135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>cm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977648463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="718835039"/>
+        <c:axId val="977648463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,9 +2563,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1290,6 +2574,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>V</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="window" lastClr="FFFFFF">
+                      <a:lumMod val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1298,9 +2643,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1314,9 +2658,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1327,17 +2670,14 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="718830047"/>
+        <c:crossAx val="977645135"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1348,11 +2688,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1419,57 +2762,87 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1477,16 +2850,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1496,23 +2868,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1520,63 +2887,123 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1600,21 +3027,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1624,20 +3048,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1649,14 +3072,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1668,14 +3090,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1687,14 +3108,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1706,9 +3121,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1725,9 +3141,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1739,14 +3156,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1758,14 +3174,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1777,27 +3192,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1805,9 +3219,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1817,14 +3230,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1836,12 +3248,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1850,14 +3261,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1866,9 +3278,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1878,17 +3289,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1900,25 +3312,344 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1926,11 +3657,223 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1939,20 +3882,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="4" name="圖表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1962,6 +3905,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2233,23 +4206,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <f>B1*5/1023</f>
+        <v>0.81133919843597258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>SUM(A1)+1</f>
         <v>2</v>
@@ -2257,1337 +4234,1933 @@
       <c r="B2">
         <v>345</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">B2*5/1023</f>
+        <v>1.686217008797654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">SUM(A2)+1</f>
+        <f t="shared" ref="A3:A66" si="1">SUM(A2)+1</f>
         <v>3</v>
       </c>
       <c r="B3">
         <v>354</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1.7302052785923754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B4">
         <v>378</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.847507331378299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B5">
         <v>393</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.9208211143695015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B6">
         <v>404</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.9745845552297165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B7">
         <v>420</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2.0527859237536656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B8">
         <v>488</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.3851417399804498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B9">
         <v>549</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.6832844574780057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B10">
         <v>574</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.8054740957966766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B11">
         <v>577</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.8201368523949171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B12">
         <v>571</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.7908113391984362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B13">
         <v>563</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.7517106549364616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B14">
         <v>556</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.7174975562072334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B15">
         <v>546</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2.6686217008797652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B16">
         <v>535</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2.6148582600195502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B17">
         <v>526</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.5708699902248289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B18">
         <v>514</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2.512218963831867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B19">
         <v>504</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2.4633431085043989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B20">
         <v>493</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.4095796676441839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B21">
         <v>482</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.3558162267839688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B22">
         <v>471</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2.3020527859237538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B23">
         <v>459</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2.2434017595307916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B24">
         <v>448</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.1896383186705766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B25">
         <v>437</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.1358748778103616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B26">
         <v>422</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2.0625610948191593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B27">
         <v>411</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2.0087976539589443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B28">
         <v>403</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1.9696969696969697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B29">
         <v>391</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.9110459433040079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B30">
         <v>380</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.8572825024437927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B31">
         <v>369</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1.8035190615835777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B32">
         <v>357</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1.7448680351906158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B33">
         <v>351</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1.7155425219941349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B34">
         <v>338</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1.6520039100684263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B35">
         <v>331</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1.6177908113391983</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B36">
         <v>320</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1.5640273704789833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B37">
         <v>312</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1.5249266862170088</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B38">
         <v>303</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1.4809384164222874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B39">
         <v>296</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1.4467253176930597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B40">
         <v>290</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1.4173998044965788</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B41">
         <v>284</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1.3880742913000979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B42">
         <v>276</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1.3489736070381231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B43">
         <v>269</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1.3147605083088953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B44">
         <v>264</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1.2903225806451613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B45">
         <v>257</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1.2561094819159335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B46">
         <v>253</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1.2365591397849462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B47">
         <v>246</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1.2023460410557185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B48">
         <v>240</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1.1730205278592376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B49">
         <v>237</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1.1583577712609971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B50">
         <v>233</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1.1388074291300099</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B51">
         <v>228</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>1.1143695014662756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B52">
         <v>220</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1.075268817204301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B53">
         <v>217</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1.0606060606060606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B54">
         <v>212</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1.0361681329423265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B55">
         <v>208</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1.0166177908113392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B56">
         <v>205</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1.0019550342130987</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B57">
         <v>203</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.99217986314760509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B58">
         <v>198</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.967741935483871</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B59">
         <v>196</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0.95796676441837736</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B60">
         <v>192</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0.93841642228739008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B61">
         <v>190</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.92864125122189634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B62">
         <v>185</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0.90420332355816224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B63">
         <v>181</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0.88465298142717497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B64">
         <v>178</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0.86999022482893451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B65">
         <v>176</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.86021505376344087</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B66">
         <v>173</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <f t="shared" ref="C66:C129" si="2">B66*5/1023</f>
+        <v>0.84555229716520042</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="1">SUM(A66)+1</f>
+        <f t="shared" ref="A67:A130" si="3">SUM(A66)+1</f>
         <v>67</v>
       </c>
       <c r="B67">
         <v>168</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>0.82111436950146632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="B68">
         <v>168</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>0.82111436950146632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="B69">
         <v>165</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>0.80645161290322576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="B70">
         <v>163</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>0.79667644183773212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="B71">
         <v>160</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>0.78201368523949166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="B72">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>0.77712609970674484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="B73">
         <v>159</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>0.77712609970674484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="B74">
         <v>156</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>0.76246334310850439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="B75">
         <v>152</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>0.74291300097751711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="B76">
         <v>151</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>0.73802541544477029</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B77">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>0.72336265884652984</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B78">
         <v>147</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <f t="shared" si="2"/>
+        <v>0.71847507331378302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B79">
         <v>143</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f t="shared" si="2"/>
+        <v>0.69892473118279574</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B80">
         <v>143</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <f t="shared" si="2"/>
+        <v>0.69892473118279574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B81">
         <v>140</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <f t="shared" si="2"/>
+        <v>0.68426197458455518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B82">
         <v>140</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <f t="shared" si="2"/>
+        <v>0.68426197458455518</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B83">
         <v>138</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <f t="shared" si="2"/>
+        <v>0.67448680351906154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B84">
         <v>137</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <f t="shared" si="2"/>
+        <v>0.66959921798631472</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B85">
         <v>135</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <f t="shared" si="2"/>
+        <v>0.65982404692082108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B86">
         <v>132</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <f t="shared" si="2"/>
+        <v>0.64516129032258063</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B87">
         <v>131</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <f t="shared" si="2"/>
+        <v>0.64027370478983381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B88">
         <v>129</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <f t="shared" si="2"/>
+        <v>0.63049853372434017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B89">
         <v>127</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <f t="shared" si="2"/>
+        <v>0.62072336265884653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B90">
         <v>126</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <f t="shared" si="2"/>
+        <v>0.61583577712609971</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B91">
         <v>123</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <f t="shared" si="2"/>
+        <v>0.60117302052785926</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B92">
         <v>123</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <f t="shared" si="2"/>
+        <v>0.60117302052785926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B93">
         <v>119</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <f t="shared" si="2"/>
+        <v>0.58162267839687198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B94">
         <v>118</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <f t="shared" si="2"/>
+        <v>0.57673509286412517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B95">
         <v>118</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <f t="shared" si="2"/>
+        <v>0.57673509286412517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B96">
         <v>116</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <f t="shared" si="2"/>
+        <v>0.56695992179863153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B97">
         <v>113</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <f t="shared" si="2"/>
+        <v>0.55229716520039096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B98">
         <v>112</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <f t="shared" si="2"/>
+        <v>0.54740957966764414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B99">
         <v>108</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f t="shared" si="2"/>
+        <v>0.52785923753665687</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B100">
         <v>109</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <f t="shared" si="2"/>
+        <v>0.53274682306940369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B101">
         <v>107</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <f t="shared" si="2"/>
+        <v>0.52297165200391005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B102">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <f t="shared" si="2"/>
+        <v>0.51319648093841641</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B103">
         <v>104</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <f t="shared" si="2"/>
+        <v>0.50830889540566959</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B104">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <f t="shared" si="2"/>
+        <v>0.50830889540566959</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B105">
         <v>101</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <f t="shared" si="2"/>
+        <v>0.49364613880742914</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B106">
         <v>101</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <f t="shared" si="2"/>
+        <v>0.49364613880742914</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B107">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <f t="shared" si="2"/>
+        <v>0.48875855327468232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B108">
         <v>97</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <f t="shared" si="2"/>
+        <v>0.47409579667644186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B109">
         <v>96</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <f t="shared" si="2"/>
+        <v>0.46920821114369504</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B110">
         <v>96</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <f t="shared" si="2"/>
+        <v>0.46920821114369504</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B111">
         <v>95</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <f t="shared" si="2"/>
+        <v>0.46432062561094817</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B112">
         <v>93</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <f t="shared" si="2"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B113">
         <v>92</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <f t="shared" si="2"/>
+        <v>0.44965786901270771</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B114">
         <v>92</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <f t="shared" si="2"/>
+        <v>0.44965786901270771</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B115">
         <v>90</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <f t="shared" si="2"/>
+        <v>0.43988269794721407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B116">
         <v>88</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <f t="shared" si="2"/>
+        <v>0.43010752688172044</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B117">
         <v>88</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <f t="shared" si="2"/>
+        <v>0.43010752688172044</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B118">
         <v>88</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <f t="shared" si="2"/>
+        <v>0.43010752688172044</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B119">
         <v>87</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <f t="shared" si="2"/>
+        <v>0.42521994134897362</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B120">
         <v>84</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <f t="shared" si="2"/>
+        <v>0.41055718475073316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B121">
         <v>84</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <f t="shared" si="2"/>
+        <v>0.41055718475073316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B122">
         <v>83</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <f t="shared" si="2"/>
+        <v>0.40566959921798629</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B123">
         <v>83</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <f t="shared" si="2"/>
+        <v>0.40566959921798629</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B124">
         <v>80</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <f t="shared" si="2"/>
+        <v>0.39100684261974583</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B125">
         <v>79</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <f t="shared" si="2"/>
+        <v>0.38611925708699901</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B126">
         <v>79</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <f t="shared" si="2"/>
+        <v>0.38611925708699901</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B127">
         <v>79</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <f t="shared" si="2"/>
+        <v>0.38611925708699901</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B128">
         <v>78</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <f t="shared" si="2"/>
+        <v>0.38123167155425219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="B129">
         <v>77</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <f t="shared" si="2"/>
+        <v>0.37634408602150538</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B130">
         <v>76</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <f t="shared" ref="C130:C150" si="4">B130*5/1023</f>
+        <v>0.37145650048875856</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" ref="A131:A150" si="2">SUM(A130)+1</f>
+        <f t="shared" ref="A131:A150" si="5">SUM(A130)+1</f>
         <v>131</v>
       </c>
       <c r="B131">
         <v>76</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <f t="shared" si="4"/>
+        <v>0.37145650048875856</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="B132">
         <v>75</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <f t="shared" si="4"/>
+        <v>0.36656891495601174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="B133">
         <v>73</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <f t="shared" si="4"/>
+        <v>0.3567937438905181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
       <c r="B134">
         <v>72</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <f t="shared" si="4"/>
+        <v>0.35190615835777128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="B135">
         <v>72</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <f t="shared" si="4"/>
+        <v>0.35190615835777128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>136</v>
       </c>
       <c r="B136">
         <v>72</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <f t="shared" si="4"/>
+        <v>0.35190615835777128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="B137">
         <v>72</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <f t="shared" si="4"/>
+        <v>0.35190615835777128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="B138">
         <v>69</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <f t="shared" si="4"/>
+        <v>0.33724340175953077</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="B139">
         <v>68</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <f t="shared" si="4"/>
+        <v>0.33235581622678395</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="B140">
         <v>68</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <f t="shared" si="4"/>
+        <v>0.33235581622678395</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="B141">
         <v>68</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <f t="shared" si="4"/>
+        <v>0.33235581622678395</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
       <c r="B142">
         <v>68</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <f t="shared" si="4"/>
+        <v>0.33235581622678395</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="B143">
         <v>66</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <f t="shared" si="4"/>
+        <v>0.32258064516129031</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="B144">
         <v>65</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <f t="shared" si="4"/>
+        <v>0.31769305962854349</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="B145">
         <v>64</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <f t="shared" si="4"/>
+        <v>0.31280547409579668</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="B146">
         <v>64</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <f t="shared" si="4"/>
+        <v>0.31280547409579668</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="B147">
         <v>64</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <f t="shared" si="4"/>
+        <v>0.31280547409579668</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="B148">
         <v>63</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <f t="shared" si="4"/>
+        <v>0.30791788856304986</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="B149">
         <v>61</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <f t="shared" si="4"/>
+        <v>0.29814271749755622</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="B150">
         <v>60</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="4"/>
+        <v>0.2932551319648094</v>
       </c>
     </row>
   </sheetData>
